--- a/database/industries/shoyande/shegol/product/quarterly_seprated.xlsx
+++ b/database/industries/shoyande/shegol/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shegol\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303D0D09-E1E2-44BF-94D7-15560E24169F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1EC040-BA47-43F2-8EF2-4E3C47346AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل چهارم منتهی به 1400/09</t>
@@ -654,16 +669,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I126"/>
+  <dimension ref="B1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -672,8 +687,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,8 +704,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -696,8 +721,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -706,8 +736,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -718,8 +753,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -730,8 +770,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -740,8 +785,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -762,8 +812,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -772,10 +837,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -784,176 +854,286 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>2888</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2917</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2127</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2398</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2380</v>
+      </c>
+      <c r="J11" s="11">
         <v>1633</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>1064</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>617</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>1759</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>2637</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>3011</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2978</v>
+      </c>
+      <c r="G12" s="13">
+        <v>3250</v>
+      </c>
+      <c r="H12" s="13">
+        <v>2528</v>
+      </c>
+      <c r="I12" s="13">
+        <v>2757</v>
+      </c>
+      <c r="J12" s="13">
         <v>2553</v>
       </c>
-      <c r="F12" s="13">
+      <c r="K12" s="13">
         <v>2121</v>
       </c>
-      <c r="G12" s="13">
+      <c r="L12" s="13">
         <v>1033</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>1521</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>2055</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>856</v>
+      </c>
+      <c r="F13" s="11">
+        <v>751</v>
+      </c>
+      <c r="G13" s="11">
+        <v>710</v>
+      </c>
+      <c r="H13" s="11">
+        <v>791</v>
+      </c>
+      <c r="I13" s="11">
+        <v>842</v>
+      </c>
+      <c r="J13" s="11">
         <v>675</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>497</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>218</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>607</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>653</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>6117</v>
+      </c>
+      <c r="F14" s="13">
+        <v>7109</v>
+      </c>
+      <c r="G14" s="13">
+        <v>6766</v>
+      </c>
+      <c r="H14" s="13">
+        <v>6678</v>
+      </c>
+      <c r="I14" s="13">
+        <v>7897</v>
+      </c>
+      <c r="J14" s="13">
         <v>7042</v>
       </c>
-      <c r="F14" s="13">
+      <c r="K14" s="13">
         <v>4834</v>
       </c>
-      <c r="G14" s="13">
+      <c r="L14" s="13">
         <v>1951</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>5357</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>7733</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
         <v>0</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>18</v>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15">
+        <v>12872</v>
+      </c>
+      <c r="F17" s="15">
+        <v>13754</v>
+      </c>
+      <c r="G17" s="15">
+        <v>12853</v>
+      </c>
+      <c r="H17" s="15">
+        <v>12395</v>
+      </c>
+      <c r="I17" s="15">
+        <v>13877</v>
+      </c>
+      <c r="J17" s="15">
         <v>11904</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>8516</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>3819</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>9244</v>
       </c>
-      <c r="I17" s="15">
+      <c r="N17" s="15">
         <v>13078</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -962,128 +1142,208 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>37</v>
+      </c>
+      <c r="I19" s="11">
+        <v>72</v>
+      </c>
+      <c r="J19" s="11">
         <v>446</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>1217</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>187</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="13">
         <v>10</v>
       </c>
-      <c r="F20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>3</v>
+      </c>
+      <c r="G21" s="11">
+        <v>50</v>
+      </c>
+      <c r="H21" s="11">
+        <v>14</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
         <v>72</v>
       </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
         <v>48</v>
       </c>
-      <c r="I21" s="11">
+      <c r="N21" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
+        <v>1141</v>
+      </c>
+      <c r="F22" s="13">
+        <v>759</v>
+      </c>
+      <c r="G22" s="13">
+        <v>157</v>
+      </c>
+      <c r="H22" s="13">
+        <v>384</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1018</v>
+      </c>
+      <c r="J22" s="13">
         <v>89</v>
       </c>
-      <c r="F22" s="13">
+      <c r="K22" s="13">
         <v>617</v>
       </c>
-      <c r="G22" s="13">
+      <c r="L22" s="13">
         <v>297</v>
       </c>
-      <c r="H22" s="13">
+      <c r="M22" s="13">
         <v>795</v>
       </c>
-      <c r="I22" s="13">
+      <c r="N22" s="13">
         <v>869</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
+        <v>1141</v>
+      </c>
+      <c r="F23" s="15">
+        <v>763</v>
+      </c>
+      <c r="G23" s="15">
+        <v>207</v>
+      </c>
+      <c r="H23" s="15">
+        <v>435</v>
+      </c>
+      <c r="I23" s="15">
+        <v>1090</v>
+      </c>
+      <c r="J23" s="15">
         <v>617</v>
       </c>
-      <c r="F23" s="15">
+      <c r="K23" s="15">
         <v>1834</v>
       </c>
-      <c r="G23" s="15">
+      <c r="L23" s="15">
         <v>484</v>
       </c>
-      <c r="H23" s="15">
+      <c r="M23" s="15">
         <v>843</v>
       </c>
-      <c r="I23" s="15">
+      <c r="N23" s="15">
         <v>963</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1092,100 +1352,165 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="11">
+      <c r="E25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="11">
         <v>-146</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="13">
-        <v>0</v>
+      <c r="E26" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
         <v>-146</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
-        <v>0</v>
-      </c>
-      <c r="I27" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>18</v>
+      <c r="E28" s="17">
+        <v>36</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <v>-31</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1204,30 +1529,60 @@
       <c r="I29" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="15">
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0</v>
+      </c>
+      <c r="N29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17">
+        <v>14049</v>
+      </c>
+      <c r="F30" s="17">
+        <v>14516</v>
+      </c>
+      <c r="G30" s="17">
+        <v>13060</v>
+      </c>
+      <c r="H30" s="17">
+        <v>12799</v>
+      </c>
+      <c r="I30" s="17">
+        <v>14967</v>
+      </c>
+      <c r="J30" s="17">
         <v>12375</v>
       </c>
-      <c r="F30" s="17">
+      <c r="K30" s="17">
         <v>10350</v>
       </c>
-      <c r="G30" s="17">
+      <c r="L30" s="17">
         <v>4303</v>
       </c>
-      <c r="H30" s="17">
+      <c r="M30" s="17">
         <v>10087</v>
       </c>
-      <c r="I30" s="17">
+      <c r="N30" s="17">
         <v>14041</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1236,8 +1591,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1246,8 +1606,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1256,10 +1621,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1278,8 +1648,23 @@
       <c r="I34" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1288,10 +1673,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1300,176 +1690,286 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
+        <v>516786</v>
+      </c>
+      <c r="F37" s="11">
+        <v>767960</v>
+      </c>
+      <c r="G37" s="11">
+        <v>637550</v>
+      </c>
+      <c r="H37" s="11">
+        <v>838038</v>
+      </c>
+      <c r="I37" s="11">
+        <v>884133</v>
+      </c>
+      <c r="J37" s="11">
         <v>822875</v>
       </c>
-      <c r="F37" s="11">
+      <c r="K37" s="11">
         <v>369308</v>
       </c>
-      <c r="G37" s="11">
+      <c r="L37" s="11">
         <v>284684</v>
       </c>
-      <c r="H37" s="11">
+      <c r="M37" s="11">
         <v>832989</v>
       </c>
-      <c r="I37" s="11">
+      <c r="N37" s="11">
         <v>1410810</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
+        <v>221369</v>
+      </c>
+      <c r="F38" s="13">
+        <v>300852</v>
+      </c>
+      <c r="G38" s="13">
+        <v>347252</v>
+      </c>
+      <c r="H38" s="13">
+        <v>334234</v>
+      </c>
+      <c r="I38" s="13">
+        <v>349830</v>
+      </c>
+      <c r="J38" s="13">
         <v>402986</v>
       </c>
-      <c r="F38" s="13">
+      <c r="K38" s="13">
         <v>278151</v>
       </c>
-      <c r="G38" s="13">
+      <c r="L38" s="13">
         <v>151398</v>
       </c>
-      <c r="H38" s="13">
+      <c r="M38" s="13">
         <v>265146</v>
       </c>
-      <c r="I38" s="13">
+      <c r="N38" s="13">
         <v>350696</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
+        <v>312824</v>
+      </c>
+      <c r="F39" s="11">
+        <v>378602</v>
+      </c>
+      <c r="G39" s="11">
+        <v>415568</v>
+      </c>
+      <c r="H39" s="11">
+        <v>535148</v>
+      </c>
+      <c r="I39" s="11">
+        <v>606624</v>
+      </c>
+      <c r="J39" s="11">
         <v>632474</v>
       </c>
-      <c r="F39" s="11">
+      <c r="K39" s="11">
         <v>334835</v>
       </c>
-      <c r="G39" s="11">
+      <c r="L39" s="11">
         <v>181490</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M39" s="11">
         <v>591673</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N39" s="11">
         <v>632481</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
+        <v>605227</v>
+      </c>
+      <c r="F40" s="13">
+        <v>1008271</v>
+      </c>
+      <c r="G40" s="13">
+        <v>1020853</v>
+      </c>
+      <c r="H40" s="13">
+        <v>1174118</v>
+      </c>
+      <c r="I40" s="13">
+        <v>1442002</v>
+      </c>
+      <c r="J40" s="13">
         <v>1585108</v>
       </c>
-      <c r="F40" s="13">
+      <c r="K40" s="13">
         <v>866470</v>
       </c>
-      <c r="G40" s="13">
+      <c r="L40" s="13">
         <v>430456</v>
       </c>
-      <c r="H40" s="13">
+      <c r="M40" s="13">
         <v>1299474</v>
       </c>
-      <c r="I40" s="13">
+      <c r="N40" s="13">
         <v>1919345</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
+        <v>26</v>
+      </c>
+      <c r="F41" s="11">
+        <v>117</v>
+      </c>
+      <c r="G41" s="11">
+        <v>188</v>
+      </c>
+      <c r="H41" s="11">
+        <v>570</v>
+      </c>
+      <c r="I41" s="11">
+        <v>353</v>
+      </c>
+      <c r="J41" s="11">
         <v>2958</v>
       </c>
-      <c r="F41" s="11">
+      <c r="K41" s="11">
         <v>158</v>
       </c>
-      <c r="G41" s="11">
+      <c r="L41" s="11">
         <v>79</v>
       </c>
-      <c r="H41" s="11">
+      <c r="M41" s="11">
         <v>788</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
         <v>0</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>18</v>
+      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J42" s="13">
+        <v>0</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
+        <v>1656232</v>
+      </c>
+      <c r="F43" s="15">
+        <v>2455802</v>
+      </c>
+      <c r="G43" s="15">
+        <v>2421411</v>
+      </c>
+      <c r="H43" s="15">
+        <v>2882108</v>
+      </c>
+      <c r="I43" s="15">
+        <v>3282942</v>
+      </c>
+      <c r="J43" s="15">
         <v>3446401</v>
       </c>
-      <c r="F43" s="15">
+      <c r="K43" s="15">
         <v>1848922</v>
       </c>
-      <c r="G43" s="15">
+      <c r="L43" s="15">
         <v>1048107</v>
       </c>
-      <c r="H43" s="15">
+      <c r="M43" s="15">
         <v>2990070</v>
       </c>
-      <c r="I43" s="15">
+      <c r="N43" s="15">
         <v>4313680</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1478,128 +1978,208 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>12619</v>
+      </c>
+      <c r="I45" s="11">
+        <v>21475</v>
+      </c>
+      <c r="J45" s="11">
         <v>128780</v>
       </c>
-      <c r="F45" s="11">
+      <c r="K45" s="11">
         <v>385308</v>
       </c>
-      <c r="G45" s="11">
+      <c r="L45" s="11">
         <v>67731</v>
       </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11">
         <v>38006</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="G46" s="13">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="13">
         <v>2374</v>
       </c>
-      <c r="F46" s="13">
-        <v>0</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K46" s="13">
+        <v>0</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>1968</v>
+      </c>
+      <c r="G47" s="11">
+        <v>22903</v>
+      </c>
+      <c r="H47" s="11">
+        <v>7668</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
         <v>43558</v>
       </c>
-      <c r="F47" s="11">
-        <v>0</v>
-      </c>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
-      <c r="H47" s="11">
+      <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
         <v>35239</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>8909</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
+        <v>163333</v>
+      </c>
+      <c r="F48" s="13">
+        <v>120096</v>
+      </c>
+      <c r="G48" s="13">
+        <v>25602</v>
+      </c>
+      <c r="H48" s="13">
+        <v>55829</v>
+      </c>
+      <c r="I48" s="13">
+        <v>180398</v>
+      </c>
+      <c r="J48" s="13">
         <v>15308</v>
       </c>
-      <c r="F48" s="13">
+      <c r="K48" s="13">
         <v>85149</v>
       </c>
-      <c r="G48" s="13">
+      <c r="L48" s="13">
         <v>50477</v>
       </c>
-      <c r="H48" s="13">
+      <c r="M48" s="13">
         <v>193603</v>
       </c>
-      <c r="I48" s="13">
+      <c r="N48" s="13">
         <v>169016</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15">
+        <v>163333</v>
+      </c>
+      <c r="F49" s="15">
+        <v>122064</v>
+      </c>
+      <c r="G49" s="15">
+        <v>48505</v>
+      </c>
+      <c r="H49" s="15">
+        <v>76116</v>
+      </c>
+      <c r="I49" s="15">
+        <v>201873</v>
+      </c>
+      <c r="J49" s="15">
         <v>190020</v>
       </c>
-      <c r="F49" s="15">
+      <c r="K49" s="15">
         <v>470457</v>
       </c>
-      <c r="G49" s="15">
+      <c r="L49" s="15">
         <v>118208</v>
       </c>
-      <c r="H49" s="15">
+      <c r="M49" s="15">
         <v>228842</v>
       </c>
-      <c r="I49" s="15">
+      <c r="N49" s="15">
         <v>215931</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -1608,111 +2188,176 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11">
+      <c r="E51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="11">
         <v>-35905</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D52" s="13"/>
-      <c r="E52" s="13">
+      <c r="E52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="13">
         <v>-897198</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15">
+        <v>0</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
         <v>-933103</v>
       </c>
-      <c r="F53" s="15">
-        <v>0</v>
-      </c>
-      <c r="G53" s="15">
-        <v>0</v>
-      </c>
-      <c r="H53" s="15">
-        <v>0</v>
-      </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D54" s="17"/>
-      <c r="E54" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>18</v>
+      <c r="E54" s="17">
+        <v>7374</v>
+      </c>
+      <c r="F54" s="17">
+        <v>0</v>
+      </c>
+      <c r="G54" s="17">
+        <v>0</v>
+      </c>
+      <c r="H54" s="17">
+        <v>-10066</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J54" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>0</v>
+        <v>212550</v>
       </c>
       <c r="F55" s="15">
         <v>0</v>
@@ -1721,35 +2366,65 @@
         <v>0</v>
       </c>
       <c r="H55" s="15">
-        <v>0</v>
+        <v>-399349</v>
       </c>
       <c r="I55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17">
+        <v>2039489</v>
+      </c>
+      <c r="F56" s="17">
+        <v>2577866</v>
+      </c>
+      <c r="G56" s="17">
+        <v>2469916</v>
+      </c>
+      <c r="H56" s="17">
+        <v>2548809</v>
+      </c>
+      <c r="I56" s="17">
+        <v>3484815</v>
+      </c>
+      <c r="J56" s="17">
         <v>2703318</v>
       </c>
-      <c r="F56" s="17">
+      <c r="K56" s="17">
         <v>2319379</v>
       </c>
-      <c r="G56" s="17">
+      <c r="L56" s="17">
         <v>1166315</v>
       </c>
-      <c r="H56" s="17">
+      <c r="M56" s="17">
         <v>3218912</v>
       </c>
-      <c r="I56" s="17">
+      <c r="N56" s="17">
         <v>4529611</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1758,8 +2433,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1768,8 +2448,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1778,10 +2463,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1800,8 +2490,23 @@
       <c r="I60" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1810,10 +2515,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -1822,154 +2532,249 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
+        <v>197581668</v>
+      </c>
+      <c r="F63" s="11">
+        <v>263310201</v>
+      </c>
+      <c r="G63" s="11">
+        <v>299741420</v>
+      </c>
+      <c r="H63" s="11">
+        <v>349473728</v>
+      </c>
+      <c r="I63" s="11">
+        <v>371484454</v>
+      </c>
+      <c r="J63" s="11">
         <v>504210784</v>
       </c>
-      <c r="F63" s="11">
+      <c r="K63" s="11">
         <v>347093985</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>461400324</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>473558272</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>535005688</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
+        <v>85323423</v>
+      </c>
+      <c r="F64" s="13">
+        <v>101039778</v>
+      </c>
+      <c r="G64" s="13">
+        <v>106846769</v>
+      </c>
+      <c r="H64" s="13">
+        <v>132212816</v>
+      </c>
+      <c r="I64" s="13">
+        <v>126887922</v>
+      </c>
+      <c r="J64" s="13">
         <v>154517255</v>
       </c>
-      <c r="F64" s="13">
+      <c r="K64" s="13">
         <v>131141443</v>
       </c>
-      <c r="G64" s="13">
+      <c r="L64" s="13">
         <v>146561471</v>
       </c>
-      <c r="H64" s="13">
+      <c r="M64" s="13">
         <v>174323471</v>
       </c>
-      <c r="I64" s="13">
+      <c r="N64" s="13">
         <v>170654988</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>404039627</v>
+      </c>
+      <c r="F65" s="11">
+        <v>504271501</v>
+      </c>
+      <c r="G65" s="11">
+        <v>585307042</v>
+      </c>
+      <c r="H65" s="11">
+        <v>676546144</v>
+      </c>
+      <c r="I65" s="11">
+        <v>720456057</v>
+      </c>
+      <c r="J65" s="11">
         <v>939789004</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>673712274</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>832522936</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>974749588</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>968577335</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
+        <v>113992158</v>
+      </c>
+      <c r="F66" s="13">
+        <v>141839792</v>
+      </c>
+      <c r="G66" s="13">
+        <v>150879840</v>
+      </c>
+      <c r="H66" s="13">
+        <v>175818808</v>
+      </c>
+      <c r="I66" s="13">
+        <v>182601241</v>
+      </c>
+      <c r="J66" s="13">
         <v>225093439</v>
       </c>
-      <c r="F66" s="13">
+      <c r="K66" s="13">
         <v>179244932</v>
       </c>
-      <c r="G66" s="13">
+      <c r="L66" s="13">
         <v>220633521</v>
       </c>
-      <c r="H66" s="13">
+      <c r="M66" s="13">
         <v>242574949</v>
       </c>
-      <c r="I66" s="13">
+      <c r="N66" s="13">
         <v>248201862</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
+        <v>1257142857</v>
+      </c>
+      <c r="F67" s="11">
+        <v>1462500000</v>
+      </c>
+      <c r="G67" s="11">
+        <v>1424242424</v>
+      </c>
+      <c r="H67" s="11">
+        <v>1781250000</v>
+      </c>
+      <c r="I67" s="11">
+        <v>666037736</v>
+      </c>
+      <c r="J67" s="11">
         <v>2962000000</v>
       </c>
-      <c r="F67" s="11">
+      <c r="K67" s="11">
         <v>1755555556</v>
       </c>
-      <c r="G67" s="11">
+      <c r="L67" s="11">
         <v>1975000000</v>
       </c>
-      <c r="H67" s="11">
+      <c r="M67" s="11">
         <v>1921951220</v>
       </c>
-      <c r="I67" s="11">
+      <c r="N67" s="11">
         <v>1581818182</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -1978,106 +2783,171 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11">
+      <c r="E70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="11">
+        <v>341054054</v>
+      </c>
+      <c r="I70" s="11">
+        <v>298263889</v>
+      </c>
+      <c r="J70" s="11">
         <v>288744395</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>316604766</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>362197861</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="M70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N70" s="11">
+        <v>463487805</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I70" s="11">
-        <v>463487805</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="C71" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D71" s="13"/>
-      <c r="E71" s="13">
+      <c r="E71" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="13">
         <v>237400000</v>
       </c>
-      <c r="F71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K71" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N71" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="11">
+      <c r="E72" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="11">
+        <v>577126100</v>
+      </c>
+      <c r="G72" s="11">
+        <v>458060000</v>
+      </c>
+      <c r="H72" s="11">
+        <v>547714286</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="11">
         <v>604972222</v>
       </c>
-      <c r="F72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="11">
+      <c r="K72" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72" s="11">
         <v>734145833</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>742416667</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13">
+        <v>143191661</v>
+      </c>
+      <c r="F73" s="13">
+        <v>158268868</v>
+      </c>
+      <c r="G73" s="13">
+        <v>163070064</v>
+      </c>
+      <c r="H73" s="13">
+        <v>145388021</v>
+      </c>
+      <c r="I73" s="13">
+        <v>177208251</v>
+      </c>
+      <c r="J73" s="13">
         <v>172000000</v>
       </c>
-      <c r="F73" s="13">
+      <c r="K73" s="13">
         <v>138004862</v>
       </c>
-      <c r="G73" s="13">
+      <c r="L73" s="13">
         <v>169956229</v>
       </c>
-      <c r="H73" s="13">
+      <c r="M73" s="13">
         <v>243525786</v>
       </c>
-      <c r="I73" s="13">
+      <c r="N73" s="13">
         <v>194494822</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -2086,56 +2956,91 @@
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2144,8 +3049,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2154,8 +3064,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2164,10 +3079,15 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -2186,8 +3106,23 @@
       <c r="I80" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2196,10 +3131,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -2208,176 +3148,286 @@
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
+        <v>-400071</v>
+      </c>
+      <c r="F83" s="11">
+        <v>-497905</v>
+      </c>
+      <c r="G83" s="11">
+        <v>-491923</v>
+      </c>
+      <c r="H83" s="11">
+        <v>-612464</v>
+      </c>
+      <c r="I83" s="11">
+        <v>-681039</v>
+      </c>
+      <c r="J83" s="11">
         <v>-463494</v>
       </c>
-      <c r="F83" s="11">
+      <c r="K83" s="11">
         <v>-358097</v>
       </c>
-      <c r="G83" s="11">
+      <c r="L83" s="11">
         <v>-225188</v>
       </c>
-      <c r="H83" s="11">
+      <c r="M83" s="11">
         <v>-742648</v>
       </c>
-      <c r="I83" s="11">
+      <c r="N83" s="11">
         <v>1325933</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
+        <v>-180257</v>
+      </c>
+      <c r="F84" s="13">
+        <v>-209597</v>
+      </c>
+      <c r="G84" s="13">
+        <v>-287481</v>
+      </c>
+      <c r="H84" s="13">
+        <v>-245598</v>
+      </c>
+      <c r="I84" s="13">
+        <v>-277607</v>
+      </c>
+      <c r="J84" s="13">
         <v>-249645</v>
       </c>
-      <c r="F84" s="13">
+      <c r="K84" s="13">
         <v>-244699</v>
       </c>
-      <c r="G84" s="13">
+      <c r="L84" s="13">
         <v>-122465</v>
       </c>
-      <c r="H84" s="13">
+      <c r="M84" s="13">
         <v>-197560</v>
       </c>
-      <c r="I84" s="13">
+      <c r="N84" s="13">
         <v>564724</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
+        <v>-206528</v>
+      </c>
+      <c r="F85" s="11">
+        <v>-192207</v>
+      </c>
+      <c r="G85" s="11">
+        <v>-225578</v>
+      </c>
+      <c r="H85" s="11">
+        <v>-281689</v>
+      </c>
+      <c r="I85" s="11">
+        <v>-333713</v>
+      </c>
+      <c r="J85" s="11">
         <v>-288674</v>
       </c>
-      <c r="F85" s="11">
+      <c r="K85" s="11">
         <v>-246712</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>-128949</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>-367389</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>743050</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
+        <v>-389725</v>
+      </c>
+      <c r="F86" s="13">
+        <v>-504907</v>
+      </c>
+      <c r="G86" s="13">
+        <v>-658195</v>
+      </c>
+      <c r="H86" s="13">
+        <v>-731266</v>
+      </c>
+      <c r="I86" s="13">
+        <v>-915489</v>
+      </c>
+      <c r="J86" s="13">
         <v>-868910</v>
       </c>
-      <c r="F86" s="13">
+      <c r="K86" s="13">
         <v>-615425</v>
       </c>
-      <c r="G86" s="13">
+      <c r="L86" s="13">
         <v>-276758</v>
       </c>
-      <c r="H86" s="13">
+      <c r="M86" s="13">
         <v>-772459</v>
       </c>
-      <c r="I86" s="13">
+      <c r="N86" s="13">
         <v>1664642</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
+        <v>-68</v>
+      </c>
+      <c r="F87" s="11">
+        <v>-56</v>
+      </c>
+      <c r="G87" s="11">
+        <v>-105</v>
+      </c>
+      <c r="H87" s="11">
+        <v>-231</v>
+      </c>
+      <c r="I87" s="11">
+        <v>-56</v>
+      </c>
+      <c r="J87" s="11">
         <v>-706</v>
       </c>
-      <c r="F87" s="11">
+      <c r="K87" s="11">
         <v>-52</v>
       </c>
-      <c r="G87" s="11">
+      <c r="L87" s="11">
         <v>-31</v>
       </c>
-      <c r="H87" s="11">
+      <c r="M87" s="11">
         <v>-327</v>
       </c>
-      <c r="I87" s="11">
+      <c r="N87" s="11">
         <v>410</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
         <v>0</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>18</v>
+      <c r="F88" s="13">
+        <v>0</v>
+      </c>
+      <c r="G88" s="13">
+        <v>0</v>
+      </c>
+      <c r="H88" s="13">
+        <v>0</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J88" s="13">
+        <v>0</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M88" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15">
+        <v>-1176649</v>
+      </c>
+      <c r="F89" s="15">
+        <v>-1404672</v>
+      </c>
+      <c r="G89" s="15">
+        <v>-1663282</v>
+      </c>
+      <c r="H89" s="15">
+        <v>-1871248</v>
+      </c>
+      <c r="I89" s="15">
+        <v>-2207904</v>
+      </c>
+      <c r="J89" s="15">
         <v>-1871429</v>
       </c>
-      <c r="F89" s="15">
+      <c r="K89" s="15">
         <v>-1464985</v>
       </c>
-      <c r="G89" s="15">
+      <c r="L89" s="15">
         <v>-753391</v>
       </c>
-      <c r="H89" s="15">
+      <c r="M89" s="15">
         <v>-2080383</v>
       </c>
-      <c r="I89" s="15">
+      <c r="N89" s="15">
         <v>4298759</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -2386,128 +3436,208 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
+        <v>-171</v>
+      </c>
+      <c r="F91" s="11">
+        <v>0</v>
+      </c>
+      <c r="G91" s="11">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
+        <v>-9969</v>
+      </c>
+      <c r="I91" s="11">
+        <v>-20089</v>
+      </c>
+      <c r="J91" s="11">
         <v>-136117</v>
       </c>
-      <c r="F91" s="11">
+      <c r="K91" s="11">
         <v>-488361</v>
       </c>
-      <c r="G91" s="11">
+      <c r="L91" s="11">
         <v>-76966</v>
       </c>
-      <c r="H91" s="11">
+      <c r="M91" s="11">
         <v>-1</v>
       </c>
-      <c r="I91" s="11">
+      <c r="N91" s="11">
         <v>565328</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
+        <v>0</v>
+      </c>
+      <c r="F92" s="13">
+        <v>0</v>
+      </c>
+      <c r="G92" s="13">
+        <v>0</v>
+      </c>
+      <c r="H92" s="13">
+        <v>0</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="13">
         <v>-1925</v>
       </c>
-      <c r="F92" s="13">
-        <v>0</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K92" s="13">
+        <v>0</v>
+      </c>
+      <c r="L92" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M92" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
+        <v>-554</v>
+      </c>
+      <c r="F93" s="11">
+        <v>-1001</v>
+      </c>
+      <c r="G93" s="11">
+        <v>-15918</v>
+      </c>
+      <c r="H93" s="11">
+        <v>-4277</v>
+      </c>
+      <c r="I93" s="11">
+        <v>0</v>
+      </c>
+      <c r="J93" s="11">
         <v>-27380</v>
       </c>
-      <c r="F93" s="11">
-        <v>0</v>
-      </c>
-      <c r="G93" s="11">
-        <v>0</v>
-      </c>
-      <c r="H93" s="11">
+      <c r="K93" s="11">
+        <v>0</v>
+      </c>
+      <c r="L93" s="11">
+        <v>0</v>
+      </c>
+      <c r="M93" s="11">
         <v>-30383</v>
       </c>
-      <c r="I93" s="11">
+      <c r="N93" s="11">
         <v>30383</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
+        <v>-69550</v>
+      </c>
+      <c r="F94" s="13">
+        <v>-60901</v>
+      </c>
+      <c r="G94" s="13">
+        <v>-16570</v>
+      </c>
+      <c r="H94" s="13">
+        <v>-38723</v>
+      </c>
+      <c r="I94" s="13">
+        <v>-126109</v>
+      </c>
+      <c r="J94" s="13">
         <v>-12536</v>
       </c>
-      <c r="F94" s="13">
+      <c r="K94" s="13">
         <v>-87487</v>
       </c>
-      <c r="G94" s="13">
+      <c r="L94" s="13">
         <v>-41272</v>
       </c>
-      <c r="H94" s="13">
+      <c r="M94" s="13">
         <v>-142618</v>
       </c>
-      <c r="I94" s="13">
+      <c r="N94" s="13">
         <v>271377</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>-70275</v>
+      </c>
+      <c r="F95" s="15">
+        <v>-61902</v>
+      </c>
+      <c r="G95" s="15">
+        <v>-32488</v>
+      </c>
+      <c r="H95" s="15">
+        <v>-52969</v>
+      </c>
+      <c r="I95" s="15">
+        <v>-146198</v>
+      </c>
+      <c r="J95" s="15">
         <v>-177958</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>-575848</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>-118238</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>-173002</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>867088</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -2516,58 +3646,93 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11">
-        <v>0</v>
+      <c r="E97" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J97" s="11">
+        <v>0</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D98" s="13"/>
-      <c r="E98" s="13">
-        <v>0</v>
+      <c r="E98" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J98" s="13">
+        <v>0</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M98" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N98" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
@@ -2586,37 +3751,67 @@
       <c r="I99" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="15">
+        <v>0</v>
+      </c>
+      <c r="K99" s="15">
+        <v>0</v>
+      </c>
+      <c r="L99" s="15">
+        <v>0</v>
+      </c>
+      <c r="M99" s="15">
+        <v>0</v>
+      </c>
+      <c r="N99" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D100" s="17"/>
-      <c r="E100" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H100" s="17" t="s">
-        <v>18</v>
+      <c r="E100" s="17">
+        <v>0</v>
+      </c>
+      <c r="F100" s="17">
+        <v>0</v>
+      </c>
+      <c r="G100" s="17">
+        <v>0</v>
+      </c>
+      <c r="H100" s="17">
+        <v>0</v>
       </c>
       <c r="I100" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J100" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K100" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L100" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M100" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N100" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
@@ -2634,30 +3829,60 @@
       <c r="I101" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="15">
+        <v>0</v>
+      </c>
+      <c r="K101" s="15">
+        <v>0</v>
+      </c>
+      <c r="L101" s="15">
+        <v>0</v>
+      </c>
+      <c r="M101" s="15">
+        <v>0</v>
+      </c>
+      <c r="N101" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17">
+        <v>-1246924</v>
+      </c>
+      <c r="F102" s="17">
+        <v>-1466574</v>
+      </c>
+      <c r="G102" s="17">
+        <v>-1695770</v>
+      </c>
+      <c r="H102" s="17">
+        <v>-1924217</v>
+      </c>
+      <c r="I102" s="17">
+        <v>-2354102</v>
+      </c>
+      <c r="J102" s="17">
         <v>-2049387</v>
       </c>
-      <c r="F102" s="17">
+      <c r="K102" s="17">
         <v>-2040833</v>
       </c>
-      <c r="G102" s="17">
+      <c r="L102" s="17">
         <v>-871629</v>
       </c>
-      <c r="H102" s="17">
+      <c r="M102" s="17">
         <v>-2253385</v>
       </c>
-      <c r="I102" s="17">
+      <c r="N102" s="17">
         <v>5165847</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2666,8 +3891,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2676,8 +3906,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2686,10 +3921,15 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -2708,8 +3948,23 @@
       <c r="I106" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2718,10 +3973,15 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -2730,176 +3990,286 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
+        <v>173311</v>
+      </c>
+      <c r="F109" s="11">
+        <v>270055</v>
+      </c>
+      <c r="G109" s="11">
+        <v>145627</v>
+      </c>
+      <c r="H109" s="11">
+        <v>225574</v>
+      </c>
+      <c r="I109" s="11">
+        <v>77476</v>
+      </c>
+      <c r="J109" s="11">
         <v>359378</v>
       </c>
-      <c r="F109" s="11">
+      <c r="K109" s="11">
         <v>11211</v>
       </c>
-      <c r="G109" s="11">
+      <c r="L109" s="11">
         <v>59496</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>90341</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>2736743</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13">
+        <v>78017</v>
+      </c>
+      <c r="F110" s="13">
+        <v>91255</v>
+      </c>
+      <c r="G110" s="13">
+        <v>59771</v>
+      </c>
+      <c r="H110" s="13">
+        <v>88637</v>
+      </c>
+      <c r="I110" s="13">
+        <v>6140</v>
+      </c>
+      <c r="J110" s="13">
         <v>153336</v>
       </c>
-      <c r="F110" s="13">
+      <c r="K110" s="13">
         <v>33452</v>
       </c>
-      <c r="G110" s="13">
+      <c r="L110" s="13">
         <v>28933</v>
       </c>
-      <c r="H110" s="13">
+      <c r="M110" s="13">
         <v>67586</v>
       </c>
-      <c r="I110" s="13">
+      <c r="N110" s="13">
         <v>915420</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
+        <v>140138</v>
+      </c>
+      <c r="F111" s="11">
+        <v>186395</v>
+      </c>
+      <c r="G111" s="11">
+        <v>189990</v>
+      </c>
+      <c r="H111" s="11">
+        <v>253459</v>
+      </c>
+      <c r="I111" s="11">
+        <v>204861</v>
+      </c>
+      <c r="J111" s="11">
         <v>343804</v>
       </c>
-      <c r="F111" s="11">
+      <c r="K111" s="11">
         <v>88123</v>
       </c>
-      <c r="G111" s="11">
+      <c r="L111" s="11">
         <v>52541</v>
       </c>
-      <c r="H111" s="11">
+      <c r="M111" s="11">
         <v>224284</v>
       </c>
-      <c r="I111" s="11">
+      <c r="N111" s="11">
         <v>1375531</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13">
+        <v>308021</v>
+      </c>
+      <c r="F112" s="13">
+        <v>503364</v>
+      </c>
+      <c r="G112" s="13">
+        <v>362658</v>
+      </c>
+      <c r="H112" s="13">
+        <v>442851</v>
+      </c>
+      <c r="I112" s="13">
+        <v>376857</v>
+      </c>
+      <c r="J112" s="13">
         <v>716198</v>
       </c>
-      <c r="F112" s="13">
+      <c r="K112" s="13">
         <v>251045</v>
       </c>
-      <c r="G112" s="13">
+      <c r="L112" s="13">
         <v>153698</v>
       </c>
-      <c r="H112" s="13">
+      <c r="M112" s="13">
         <v>527015</v>
       </c>
-      <c r="I112" s="13">
+      <c r="N112" s="13">
         <v>3583987</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
+        <v>20</v>
+      </c>
+      <c r="F113" s="11">
+        <v>61</v>
+      </c>
+      <c r="G113" s="11">
+        <v>83</v>
+      </c>
+      <c r="H113" s="11">
+        <v>339</v>
+      </c>
+      <c r="I113" s="11">
+        <v>290</v>
+      </c>
+      <c r="J113" s="11">
         <v>2256</v>
       </c>
-      <c r="F113" s="11">
+      <c r="K113" s="11">
         <v>106</v>
       </c>
-      <c r="G113" s="11">
+      <c r="L113" s="11">
         <v>48</v>
       </c>
-      <c r="H113" s="11">
+      <c r="M113" s="11">
         <v>461</v>
       </c>
-      <c r="I113" s="11">
+      <c r="N113" s="11">
         <v>758</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
         <v>0</v>
       </c>
-      <c r="F114" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>18</v>
+      <c r="F114" s="13">
+        <v>0</v>
+      </c>
+      <c r="G114" s="13">
+        <v>0</v>
+      </c>
+      <c r="H114" s="13">
+        <v>0</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J114" s="13">
+        <v>0</v>
+      </c>
+      <c r="K114" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L114" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M114" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N114" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15">
+        <v>699507</v>
+      </c>
+      <c r="F115" s="15">
+        <v>1051130</v>
+      </c>
+      <c r="G115" s="15">
+        <v>758129</v>
+      </c>
+      <c r="H115" s="15">
+        <v>1010860</v>
+      </c>
+      <c r="I115" s="15">
+        <v>665624</v>
+      </c>
+      <c r="J115" s="15">
         <v>1574972</v>
       </c>
-      <c r="F115" s="15">
+      <c r="K115" s="15">
         <v>383937</v>
       </c>
-      <c r="G115" s="15">
+      <c r="L115" s="15">
         <v>294716</v>
       </c>
-      <c r="H115" s="15">
+      <c r="M115" s="15">
         <v>909687</v>
       </c>
-      <c r="I115" s="15">
+      <c r="N115" s="15">
         <v>8612439</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -2908,128 +4278,208 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
+        <v>-171</v>
+      </c>
+      <c r="F117" s="11">
+        <v>0</v>
+      </c>
+      <c r="G117" s="11">
+        <v>0</v>
+      </c>
+      <c r="H117" s="11">
+        <v>2650</v>
+      </c>
+      <c r="I117" s="11">
+        <v>1386</v>
+      </c>
+      <c r="J117" s="11">
         <v>-7337</v>
       </c>
-      <c r="F117" s="11">
+      <c r="K117" s="11">
         <v>-103053</v>
       </c>
-      <c r="G117" s="11">
+      <c r="L117" s="11">
         <v>-9235</v>
       </c>
-      <c r="H117" s="11">
+      <c r="M117" s="11">
         <v>-1</v>
       </c>
-      <c r="I117" s="11">
+      <c r="N117" s="11">
         <v>603334</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D118" s="13"/>
       <c r="E118" s="13">
+        <v>0</v>
+      </c>
+      <c r="F118" s="13">
+        <v>0</v>
+      </c>
+      <c r="G118" s="13">
+        <v>0</v>
+      </c>
+      <c r="H118" s="13">
+        <v>0</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J118" s="13">
         <v>449</v>
       </c>
-      <c r="F118" s="13">
-        <v>0</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H118" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I118" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K118" s="13">
+        <v>0</v>
+      </c>
+      <c r="L118" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M118" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N118" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
+        <v>-554</v>
+      </c>
+      <c r="F119" s="11">
+        <v>967</v>
+      </c>
+      <c r="G119" s="11">
+        <v>6985</v>
+      </c>
+      <c r="H119" s="11">
+        <v>6090</v>
+      </c>
+      <c r="I119" s="11">
+        <v>0</v>
+      </c>
+      <c r="J119" s="11">
         <v>16178</v>
       </c>
-      <c r="F119" s="11">
-        <v>0</v>
-      </c>
-      <c r="G119" s="11">
-        <v>0</v>
-      </c>
-      <c r="H119" s="11">
+      <c r="K119" s="11">
+        <v>0</v>
+      </c>
+      <c r="L119" s="11">
+        <v>0</v>
+      </c>
+      <c r="M119" s="11">
         <v>4856</v>
       </c>
-      <c r="I119" s="11">
+      <c r="N119" s="11">
         <v>39292</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13">
+        <v>93783</v>
+      </c>
+      <c r="F120" s="13">
+        <v>59195</v>
+      </c>
+      <c r="G120" s="13">
+        <v>9032</v>
+      </c>
+      <c r="H120" s="13">
+        <v>14407</v>
+      </c>
+      <c r="I120" s="13">
+        <v>54289</v>
+      </c>
+      <c r="J120" s="13">
         <v>2772</v>
       </c>
-      <c r="F120" s="13">
+      <c r="K120" s="13">
         <v>-2338</v>
       </c>
-      <c r="G120" s="13">
+      <c r="L120" s="13">
         <v>9205</v>
       </c>
-      <c r="H120" s="13">
+      <c r="M120" s="13">
         <v>50985</v>
       </c>
-      <c r="I120" s="13">
+      <c r="N120" s="13">
         <v>440393</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
+        <v>93058</v>
+      </c>
+      <c r="F121" s="15">
+        <v>60162</v>
+      </c>
+      <c r="G121" s="15">
+        <v>16017</v>
+      </c>
+      <c r="H121" s="15">
+        <v>23147</v>
+      </c>
+      <c r="I121" s="15">
+        <v>55675</v>
+      </c>
+      <c r="J121" s="15">
         <v>12062</v>
       </c>
-      <c r="F121" s="15">
+      <c r="K121" s="15">
         <v>-105391</v>
       </c>
-      <c r="G121" s="15">
+      <c r="L121" s="15">
         <v>-30</v>
       </c>
-      <c r="H121" s="15">
+      <c r="M121" s="15">
         <v>55840</v>
       </c>
-      <c r="I121" s="15">
+      <c r="N121" s="15">
         <v>1083019</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -3038,96 +4488,161 @@
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11">
+      <c r="E123" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H123" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J123" s="11">
         <v>-35905</v>
       </c>
-      <c r="F123" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I123" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K123" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D124" s="13"/>
-      <c r="E124" s="13">
+      <c r="E124" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J124" s="13">
         <v>-897198</v>
       </c>
-      <c r="F124" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K124" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L124" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M124" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N124" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
       <c r="E125" s="15">
+        <v>0</v>
+      </c>
+      <c r="F125" s="15">
+        <v>0</v>
+      </c>
+      <c r="G125" s="15">
+        <v>0</v>
+      </c>
+      <c r="H125" s="15">
+        <v>0</v>
+      </c>
+      <c r="I125" s="15">
+        <v>0</v>
+      </c>
+      <c r="J125" s="15">
         <v>-933103</v>
       </c>
-      <c r="F125" s="15">
-        <v>0</v>
-      </c>
-      <c r="G125" s="15">
-        <v>0</v>
-      </c>
-      <c r="H125" s="15">
-        <v>0</v>
-      </c>
-      <c r="I125" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K125" s="15">
+        <v>0</v>
+      </c>
+      <c r="L125" s="15">
+        <v>0</v>
+      </c>
+      <c r="M125" s="15">
+        <v>0</v>
+      </c>
+      <c r="N125" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
       <c r="E126" s="17">
+        <v>792565</v>
+      </c>
+      <c r="F126" s="17">
+        <v>1111292</v>
+      </c>
+      <c r="G126" s="17">
+        <v>774146</v>
+      </c>
+      <c r="H126" s="17">
+        <v>1034007</v>
+      </c>
+      <c r="I126" s="17">
+        <v>721299</v>
+      </c>
+      <c r="J126" s="17">
         <v>653931</v>
       </c>
-      <c r="F126" s="17">
+      <c r="K126" s="17">
         <v>278546</v>
       </c>
-      <c r="G126" s="17">
+      <c r="L126" s="17">
         <v>294686</v>
       </c>
-      <c r="H126" s="17">
+      <c r="M126" s="17">
         <v>965527</v>
       </c>
-      <c r="I126" s="17">
+      <c r="N126" s="17">
         <v>9695458</v>
       </c>
     </row>

--- a/database/industries/shoyande/shegol/product/quarterly_seprated.xlsx
+++ b/database/industries/shoyande/shegol/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1EC040-BA47-43F2-8EF2-4E3C47346AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A6BFE1-2FF5-45E7-B162-F2B37BAE635A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -673,12 +673,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -693,7 +693,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -727,7 +727,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -742,7 +742,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -759,7 +759,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -791,7 +791,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -828,7 +828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -843,7 +843,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -860,7 +860,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -869,37 +869,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2888</v>
+        <v>2917</v>
       </c>
       <c r="F11" s="11">
-        <v>2917</v>
+        <v>2127</v>
       </c>
       <c r="G11" s="11">
-        <v>2127</v>
+        <v>2398</v>
       </c>
       <c r="H11" s="11">
-        <v>2398</v>
+        <v>2380</v>
       </c>
       <c r="I11" s="11">
-        <v>2380</v>
+        <v>1633</v>
       </c>
       <c r="J11" s="11">
-        <v>1633</v>
+        <v>1064</v>
       </c>
       <c r="K11" s="11">
-        <v>1064</v>
+        <v>617</v>
       </c>
       <c r="L11" s="11">
-        <v>617</v>
+        <v>1759</v>
       </c>
       <c r="M11" s="11">
-        <v>1759</v>
+        <v>3003</v>
       </c>
       <c r="N11" s="11">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -908,37 +908,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>3011</v>
+        <v>2978</v>
       </c>
       <c r="F12" s="13">
-        <v>2978</v>
+        <v>3250</v>
       </c>
       <c r="G12" s="13">
-        <v>3250</v>
+        <v>2528</v>
       </c>
       <c r="H12" s="13">
-        <v>2528</v>
+        <v>2757</v>
       </c>
       <c r="I12" s="13">
-        <v>2757</v>
+        <v>2553</v>
       </c>
       <c r="J12" s="13">
-        <v>2553</v>
+        <v>2121</v>
       </c>
       <c r="K12" s="13">
-        <v>2121</v>
+        <v>1033</v>
       </c>
       <c r="L12" s="13">
-        <v>1033</v>
+        <v>1521</v>
       </c>
       <c r="M12" s="13">
-        <v>1521</v>
+        <v>2220</v>
       </c>
       <c r="N12" s="13">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -947,37 +947,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>856</v>
+        <v>751</v>
       </c>
       <c r="F13" s="11">
-        <v>751</v>
+        <v>710</v>
       </c>
       <c r="G13" s="11">
-        <v>710</v>
+        <v>791</v>
       </c>
       <c r="H13" s="11">
-        <v>791</v>
+        <v>842</v>
       </c>
       <c r="I13" s="11">
-        <v>842</v>
+        <v>675</v>
       </c>
       <c r="J13" s="11">
-        <v>675</v>
+        <v>497</v>
       </c>
       <c r="K13" s="11">
-        <v>497</v>
+        <v>218</v>
       </c>
       <c r="L13" s="11">
-        <v>218</v>
+        <v>607</v>
       </c>
       <c r="M13" s="11">
-        <v>607</v>
+        <v>722</v>
       </c>
       <c r="N13" s="11">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
@@ -986,37 +986,37 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>6117</v>
+        <v>7109</v>
       </c>
       <c r="F14" s="13">
-        <v>7109</v>
+        <v>6766</v>
       </c>
       <c r="G14" s="13">
-        <v>6766</v>
+        <v>6678</v>
       </c>
       <c r="H14" s="13">
-        <v>6678</v>
+        <v>7897</v>
       </c>
       <c r="I14" s="13">
-        <v>7897</v>
+        <v>7042</v>
       </c>
       <c r="J14" s="13">
-        <v>7042</v>
+        <v>4834</v>
       </c>
       <c r="K14" s="13">
-        <v>4834</v>
+        <v>1951</v>
       </c>
       <c r="L14" s="13">
-        <v>1951</v>
+        <v>5357</v>
       </c>
       <c r="M14" s="13">
-        <v>5357</v>
+        <v>8473</v>
       </c>
       <c r="N14" s="13">
-        <v>7733</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8988</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="11">
         <v>1</v>
       </c>
       <c r="J15" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="11">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>22</v>
       </c>
@@ -1072,14 +1072,14 @@
       <c r="G16" s="13">
         <v>0</v>
       </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0</v>
+      <c r="H16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>23</v>
@@ -1094,44 +1094,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15">
-        <v>12872</v>
+        <v>13754</v>
       </c>
       <c r="F17" s="15">
-        <v>13754</v>
+        <v>12853</v>
       </c>
       <c r="G17" s="15">
-        <v>12853</v>
+        <v>12395</v>
       </c>
       <c r="H17" s="15">
-        <v>12395</v>
+        <v>13877</v>
       </c>
       <c r="I17" s="15">
-        <v>13877</v>
+        <v>11904</v>
       </c>
       <c r="J17" s="15">
-        <v>11904</v>
+        <v>8516</v>
       </c>
       <c r="K17" s="15">
-        <v>8516</v>
+        <v>3819</v>
       </c>
       <c r="L17" s="15">
-        <v>3819</v>
+        <v>9244</v>
       </c>
       <c r="M17" s="15">
-        <v>9244</v>
+        <v>14418</v>
       </c>
       <c r="N17" s="15">
-        <v>13078</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14877</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1148,7 +1148,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1163,31 +1163,31 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H19" s="11">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I19" s="11">
-        <v>72</v>
+        <v>446</v>
       </c>
       <c r="J19" s="11">
-        <v>446</v>
+        <v>1217</v>
       </c>
       <c r="K19" s="11">
-        <v>1217</v>
+        <v>187</v>
       </c>
       <c r="L19" s="11">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="M19" s="11">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N19" s="11">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>18</v>
       </c>
@@ -1204,29 +1204,29 @@
       <c r="G20" s="13">
         <v>0</v>
       </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>23</v>
+      <c r="H20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="13">
+        <v>10</v>
       </c>
       <c r="J20" s="13">
-        <v>10</v>
-      </c>
-      <c r="K20" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="13" t="s">
-        <v>23</v>
+      <c r="M20" s="13">
+        <v>0</v>
       </c>
       <c r="N20" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -1235,37 +1235,37 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="11">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G21" s="11">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>72</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>48</v>
+      </c>
+      <c r="M21" s="11">
+        <v>12</v>
+      </c>
+      <c r="N21" s="11">
         <v>14</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>72</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>48</v>
-      </c>
-      <c r="N21" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>20</v>
       </c>
@@ -1274,74 +1274,74 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>1141</v>
+        <v>759</v>
       </c>
       <c r="F22" s="13">
-        <v>759</v>
+        <v>157</v>
       </c>
       <c r="G22" s="13">
-        <v>157</v>
+        <v>384</v>
       </c>
       <c r="H22" s="13">
-        <v>384</v>
+        <v>1018</v>
       </c>
       <c r="I22" s="13">
-        <v>1018</v>
+        <v>89</v>
       </c>
       <c r="J22" s="13">
-        <v>89</v>
+        <v>617</v>
       </c>
       <c r="K22" s="13">
-        <v>617</v>
+        <v>297</v>
       </c>
       <c r="L22" s="13">
-        <v>297</v>
+        <v>795</v>
       </c>
       <c r="M22" s="13">
-        <v>795</v>
+        <v>869</v>
       </c>
       <c r="N22" s="13">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>1141</v>
+        <v>763</v>
       </c>
       <c r="F23" s="15">
-        <v>763</v>
+        <v>207</v>
       </c>
       <c r="G23" s="15">
-        <v>207</v>
+        <v>435</v>
       </c>
       <c r="H23" s="15">
-        <v>435</v>
+        <v>1090</v>
       </c>
       <c r="I23" s="15">
-        <v>1090</v>
+        <v>617</v>
       </c>
       <c r="J23" s="15">
-        <v>617</v>
+        <v>1834</v>
       </c>
       <c r="K23" s="15">
-        <v>1834</v>
+        <v>484</v>
       </c>
       <c r="L23" s="15">
-        <v>484</v>
+        <v>843</v>
       </c>
       <c r="M23" s="15">
-        <v>843</v>
+        <v>963</v>
       </c>
       <c r="N23" s="15">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>27</v>
       </c>
@@ -1358,7 +1358,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
@@ -1376,26 +1376,26 @@
       <c r="H25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="11">
+      <c r="I25" s="11">
         <v>-146</v>
       </c>
+      <c r="J25" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="K25" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="11">
+        <v>-1343</v>
+      </c>
+      <c r="N25" s="11">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
@@ -1413,11 +1413,11 @@
       <c r="H26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="13">
-        <v>0</v>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>23</v>
@@ -1425,14 +1425,14 @@
       <c r="L26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M26" s="13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>30</v>
       </c>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="15">
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="J27" s="15">
-        <v>-146</v>
+        <v>0</v>
       </c>
       <c r="K27" s="15">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="15">
-        <v>0</v>
+        <v>-1343</v>
       </c>
       <c r="N27" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>28</v>
       </c>
@@ -1478,17 +1478,17 @@
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F28" s="17">
         <v>0</v>
       </c>
       <c r="G28" s="17">
-        <v>0</v>
-      </c>
-      <c r="H28" s="17">
         <v>-31</v>
       </c>
+      <c r="H28" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="I28" s="17" t="s">
         <v>23</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>32</v>
       </c>
@@ -1545,44 +1545,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17">
-        <v>14049</v>
+        <v>14516</v>
       </c>
       <c r="F30" s="17">
-        <v>14516</v>
+        <v>13060</v>
       </c>
       <c r="G30" s="17">
-        <v>13060</v>
+        <v>12799</v>
       </c>
       <c r="H30" s="17">
-        <v>12799</v>
+        <v>14967</v>
       </c>
       <c r="I30" s="17">
-        <v>14967</v>
+        <v>12375</v>
       </c>
       <c r="J30" s="17">
-        <v>12375</v>
+        <v>10350</v>
       </c>
       <c r="K30" s="17">
-        <v>10350</v>
+        <v>4303</v>
       </c>
       <c r="L30" s="17">
-        <v>4303</v>
+        <v>10087</v>
       </c>
       <c r="M30" s="17">
-        <v>10087</v>
+        <v>14038</v>
       </c>
       <c r="N30" s="17">
-        <v>14041</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15042</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1597,7 +1597,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1612,7 +1612,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1627,7 +1627,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>34</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1679,7 +1679,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>35</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>16</v>
       </c>
@@ -1705,37 +1705,37 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>516786</v>
+        <v>767960</v>
       </c>
       <c r="F37" s="11">
-        <v>767960</v>
+        <v>637550</v>
       </c>
       <c r="G37" s="11">
-        <v>637550</v>
+        <v>838038</v>
       </c>
       <c r="H37" s="11">
-        <v>838038</v>
+        <v>884133</v>
       </c>
       <c r="I37" s="11">
-        <v>884133</v>
+        <v>822875</v>
       </c>
       <c r="J37" s="11">
-        <v>822875</v>
+        <v>369308</v>
       </c>
       <c r="K37" s="11">
-        <v>369308</v>
+        <v>284684</v>
       </c>
       <c r="L37" s="11">
-        <v>284684</v>
+        <v>832989</v>
       </c>
       <c r="M37" s="11">
-        <v>832989</v>
+        <v>1703644</v>
       </c>
       <c r="N37" s="11">
-        <v>1410810</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1608029</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>18</v>
       </c>
@@ -1744,37 +1744,37 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>221369</v>
+        <v>300852</v>
       </c>
       <c r="F38" s="13">
-        <v>300852</v>
+        <v>347252</v>
       </c>
       <c r="G38" s="13">
-        <v>347252</v>
+        <v>334234</v>
       </c>
       <c r="H38" s="13">
-        <v>334234</v>
+        <v>349830</v>
       </c>
       <c r="I38" s="13">
-        <v>349830</v>
+        <v>402986</v>
       </c>
       <c r="J38" s="13">
-        <v>402986</v>
+        <v>278151</v>
       </c>
       <c r="K38" s="13">
-        <v>278151</v>
+        <v>151398</v>
       </c>
       <c r="L38" s="13">
-        <v>151398</v>
+        <v>265146</v>
       </c>
       <c r="M38" s="13">
-        <v>265146</v>
+        <v>435014</v>
       </c>
       <c r="N38" s="13">
-        <v>350696</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>426019</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>19</v>
       </c>
@@ -1783,37 +1783,37 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>312824</v>
+        <v>378602</v>
       </c>
       <c r="F39" s="11">
-        <v>378602</v>
+        <v>415568</v>
       </c>
       <c r="G39" s="11">
-        <v>415568</v>
+        <v>535148</v>
       </c>
       <c r="H39" s="11">
-        <v>535148</v>
+        <v>606624</v>
       </c>
       <c r="I39" s="11">
-        <v>606624</v>
+        <v>632474</v>
       </c>
       <c r="J39" s="11">
-        <v>632474</v>
+        <v>334835</v>
       </c>
       <c r="K39" s="11">
-        <v>334835</v>
+        <v>181490</v>
       </c>
       <c r="L39" s="11">
-        <v>181490</v>
+        <v>591673</v>
       </c>
       <c r="M39" s="11">
-        <v>591673</v>
+        <v>800527</v>
       </c>
       <c r="N39" s="11">
-        <v>632481</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>613170</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>20</v>
       </c>
@@ -1822,37 +1822,37 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>605227</v>
+        <v>1008271</v>
       </c>
       <c r="F40" s="13">
-        <v>1008271</v>
+        <v>1020853</v>
       </c>
       <c r="G40" s="13">
-        <v>1020853</v>
+        <v>1174118</v>
       </c>
       <c r="H40" s="13">
-        <v>1174118</v>
+        <v>1442002</v>
       </c>
       <c r="I40" s="13">
-        <v>1442002</v>
+        <v>1585108</v>
       </c>
       <c r="J40" s="13">
-        <v>1585108</v>
+        <v>866470</v>
       </c>
       <c r="K40" s="13">
-        <v>866470</v>
+        <v>430456</v>
       </c>
       <c r="L40" s="13">
-        <v>430456</v>
+        <v>1299474</v>
       </c>
       <c r="M40" s="13">
-        <v>1299474</v>
+        <v>2252225</v>
       </c>
       <c r="N40" s="13">
-        <v>1919345</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2264626</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>21</v>
       </c>
@@ -1861,37 +1861,37 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="F41" s="11">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="G41" s="11">
-        <v>188</v>
+        <v>570</v>
       </c>
       <c r="H41" s="11">
-        <v>570</v>
+        <v>353</v>
       </c>
       <c r="I41" s="11">
-        <v>353</v>
+        <v>2958</v>
       </c>
       <c r="J41" s="11">
-        <v>2958</v>
+        <v>158</v>
       </c>
       <c r="K41" s="11">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="L41" s="11">
-        <v>79</v>
+        <v>788</v>
       </c>
       <c r="M41" s="11">
-        <v>788</v>
+        <v>418</v>
       </c>
       <c r="N41" s="11">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>22</v>
       </c>
@@ -1908,14 +1908,14 @@
       <c r="G42" s="13">
         <v>0</v>
       </c>
-      <c r="H42" s="13">
-        <v>0</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="13">
-        <v>0</v>
+      <c r="H42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>23</v>
@@ -1930,44 +1930,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
-        <v>1656232</v>
+        <v>2455802</v>
       </c>
       <c r="F43" s="15">
-        <v>2455802</v>
+        <v>2421411</v>
       </c>
       <c r="G43" s="15">
-        <v>2421411</v>
+        <v>2882108</v>
       </c>
       <c r="H43" s="15">
-        <v>2882108</v>
+        <v>3282942</v>
       </c>
       <c r="I43" s="15">
-        <v>3282942</v>
+        <v>3446401</v>
       </c>
       <c r="J43" s="15">
-        <v>3446401</v>
+        <v>1848922</v>
       </c>
       <c r="K43" s="15">
-        <v>1848922</v>
+        <v>1048107</v>
       </c>
       <c r="L43" s="15">
-        <v>1048107</v>
+        <v>2990070</v>
       </c>
       <c r="M43" s="15">
-        <v>2990070</v>
+        <v>5191828</v>
       </c>
       <c r="N43" s="15">
-        <v>4313680</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4912139</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>37</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>16</v>
       </c>
@@ -1999,31 +1999,31 @@
         <v>0</v>
       </c>
       <c r="G45" s="11">
-        <v>0</v>
+        <v>12619</v>
       </c>
       <c r="H45" s="11">
-        <v>12619</v>
+        <v>21475</v>
       </c>
       <c r="I45" s="11">
-        <v>21475</v>
+        <v>128780</v>
       </c>
       <c r="J45" s="11">
-        <v>128780</v>
+        <v>385308</v>
       </c>
       <c r="K45" s="11">
-        <v>385308</v>
+        <v>67731</v>
       </c>
       <c r="L45" s="11">
-        <v>67731</v>
+        <v>0</v>
       </c>
       <c r="M45" s="11">
-        <v>0</v>
+        <v>38006</v>
       </c>
       <c r="N45" s="11">
-        <v>38006</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
@@ -2040,29 +2040,29 @@
       <c r="G46" s="13">
         <v>0</v>
       </c>
-      <c r="H46" s="13">
-        <v>0</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>23</v>
+      <c r="H46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="13">
+        <v>2374</v>
       </c>
       <c r="J46" s="13">
-        <v>2374</v>
-      </c>
-      <c r="K46" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="L46" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M46" s="13" t="s">
-        <v>23</v>
+      <c r="M46" s="13">
+        <v>0</v>
       </c>
       <c r="N46" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>19</v>
       </c>
@@ -2071,37 +2071,37 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>0</v>
+        <v>1968</v>
       </c>
       <c r="F47" s="11">
-        <v>1968</v>
+        <v>22903</v>
       </c>
       <c r="G47" s="11">
-        <v>22903</v>
+        <v>7668</v>
       </c>
       <c r="H47" s="11">
-        <v>7668</v>
+        <v>0</v>
       </c>
       <c r="I47" s="11">
-        <v>0</v>
+        <v>43558</v>
       </c>
       <c r="J47" s="11">
-        <v>43558</v>
+        <v>0</v>
       </c>
       <c r="K47" s="11">
         <v>0</v>
       </c>
       <c r="L47" s="11">
-        <v>0</v>
+        <v>35239</v>
       </c>
       <c r="M47" s="11">
-        <v>35239</v>
+        <v>8909</v>
       </c>
       <c r="N47" s="11">
-        <v>8909</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>42520</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>20</v>
       </c>
@@ -2110,74 +2110,74 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13">
-        <v>163333</v>
+        <v>120096</v>
       </c>
       <c r="F48" s="13">
-        <v>120096</v>
+        <v>25602</v>
       </c>
       <c r="G48" s="13">
-        <v>25602</v>
+        <v>55829</v>
       </c>
       <c r="H48" s="13">
-        <v>55829</v>
+        <v>180398</v>
       </c>
       <c r="I48" s="13">
-        <v>180398</v>
+        <v>15308</v>
       </c>
       <c r="J48" s="13">
-        <v>15308</v>
+        <v>85149</v>
       </c>
       <c r="K48" s="13">
-        <v>85149</v>
+        <v>50477</v>
       </c>
       <c r="L48" s="13">
-        <v>50477</v>
+        <v>193603</v>
       </c>
       <c r="M48" s="13">
-        <v>193603</v>
+        <v>169016</v>
       </c>
       <c r="N48" s="13">
-        <v>169016</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30780</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15">
-        <v>163333</v>
+        <v>122064</v>
       </c>
       <c r="F49" s="15">
-        <v>122064</v>
+        <v>48505</v>
       </c>
       <c r="G49" s="15">
-        <v>48505</v>
+        <v>76116</v>
       </c>
       <c r="H49" s="15">
-        <v>76116</v>
+        <v>201873</v>
       </c>
       <c r="I49" s="15">
-        <v>201873</v>
+        <v>190020</v>
       </c>
       <c r="J49" s="15">
-        <v>190020</v>
+        <v>470457</v>
       </c>
       <c r="K49" s="15">
-        <v>470457</v>
+        <v>118208</v>
       </c>
       <c r="L49" s="15">
-        <v>118208</v>
+        <v>228842</v>
       </c>
       <c r="M49" s="15">
-        <v>228842</v>
+        <v>215931</v>
       </c>
       <c r="N49" s="15">
-        <v>215931</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>38</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>28</v>
       </c>
@@ -2214,26 +2214,26 @@
       <c r="H51" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="11">
+      <c r="I51" s="11">
         <v>-35905</v>
       </c>
+      <c r="J51" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="K51" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L51" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M51" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N51" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M51" s="11">
+        <v>-454648</v>
+      </c>
+      <c r="N51" s="11">
+        <v>-9707</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>29</v>
       </c>
@@ -2253,26 +2253,26 @@
       <c r="H52" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" s="13">
+      <c r="I52" s="13">
         <v>-897198</v>
       </c>
+      <c r="J52" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="K52" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L52" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M52" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M52" s="13">
+        <v>-423500</v>
+      </c>
+      <c r="N52" s="13">
+        <v>-212786</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>30</v>
       </c>
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="15">
-        <v>0</v>
+        <v>-933103</v>
       </c>
       <c r="J53" s="15">
-        <v>-933103</v>
+        <v>0</v>
       </c>
       <c r="K53" s="15">
         <v>0</v>
@@ -2303,13 +2303,13 @@
         <v>0</v>
       </c>
       <c r="M53" s="15">
-        <v>0</v>
+        <v>-878148</v>
       </c>
       <c r="N53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-222493</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="16" t="s">
         <v>28</v>
       </c>
@@ -2318,17 +2318,17 @@
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="17">
-        <v>7374</v>
+        <v>0</v>
       </c>
       <c r="F54" s="17">
         <v>0</v>
       </c>
       <c r="G54" s="17">
-        <v>0</v>
-      </c>
-      <c r="H54" s="17">
         <v>-10066</v>
       </c>
+      <c r="H54" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="I54" s="17" t="s">
         <v>23</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>32</v>
       </c>
@@ -2357,16 +2357,16 @@
       </c>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>212550</v>
+        <v>0</v>
       </c>
       <c r="F55" s="15">
         <v>0</v>
       </c>
       <c r="G55" s="15">
-        <v>0</v>
+        <v>-399349</v>
       </c>
       <c r="H55" s="15">
-        <v>-399349</v>
+        <v>0</v>
       </c>
       <c r="I55" s="15">
         <v>0</v>
@@ -2387,44 +2387,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17">
-        <v>2039489</v>
+        <v>2577866</v>
       </c>
       <c r="F56" s="17">
-        <v>2577866</v>
+        <v>2469916</v>
       </c>
       <c r="G56" s="17">
-        <v>2469916</v>
+        <v>2548809</v>
       </c>
       <c r="H56" s="17">
-        <v>2548809</v>
+        <v>3484815</v>
       </c>
       <c r="I56" s="17">
-        <v>3484815</v>
+        <v>2703318</v>
       </c>
       <c r="J56" s="17">
-        <v>2703318</v>
+        <v>2319379</v>
       </c>
       <c r="K56" s="17">
-        <v>2319379</v>
+        <v>1166315</v>
       </c>
       <c r="L56" s="17">
-        <v>1166315</v>
+        <v>3218912</v>
       </c>
       <c r="M56" s="17">
-        <v>3218912</v>
+        <v>4529611</v>
       </c>
       <c r="N56" s="17">
-        <v>4529611</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4762946</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2439,7 +2439,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2454,7 +2454,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2469,7 +2469,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>39</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2521,7 +2521,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>40</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
@@ -2547,37 +2547,37 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>197581668</v>
+        <v>263310201</v>
       </c>
       <c r="F63" s="11">
-        <v>263310201</v>
+        <v>299741420</v>
       </c>
       <c r="G63" s="11">
-        <v>299741420</v>
+        <v>349473728</v>
       </c>
       <c r="H63" s="11">
-        <v>349473728</v>
+        <v>371484454</v>
       </c>
       <c r="I63" s="11">
-        <v>371484454</v>
+        <v>504210784</v>
       </c>
       <c r="J63" s="11">
-        <v>504210784</v>
+        <v>347093985</v>
       </c>
       <c r="K63" s="11">
-        <v>347093985</v>
+        <v>461400324</v>
       </c>
       <c r="L63" s="11">
-        <v>461400324</v>
+        <v>473558272</v>
       </c>
       <c r="M63" s="11">
-        <v>473558272</v>
+        <v>567314019</v>
       </c>
       <c r="N63" s="11">
-        <v>535005688</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>581145284</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>18</v>
       </c>
@@ -2586,37 +2586,37 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>85323423</v>
+        <v>101039778</v>
       </c>
       <c r="F64" s="13">
-        <v>101039778</v>
+        <v>106846769</v>
       </c>
       <c r="G64" s="13">
-        <v>106846769</v>
+        <v>132212816</v>
       </c>
       <c r="H64" s="13">
-        <v>132212816</v>
+        <v>126887922</v>
       </c>
       <c r="I64" s="13">
-        <v>126887922</v>
+        <v>154517255</v>
       </c>
       <c r="J64" s="13">
-        <v>154517255</v>
+        <v>131141443</v>
       </c>
       <c r="K64" s="13">
-        <v>131141443</v>
+        <v>146561471</v>
       </c>
       <c r="L64" s="13">
-        <v>146561471</v>
+        <v>174323471</v>
       </c>
       <c r="M64" s="13">
-        <v>174323471</v>
+        <v>195952252</v>
       </c>
       <c r="N64" s="13">
-        <v>170654988</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>173814361</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>19</v>
       </c>
@@ -2625,37 +2625,37 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>404039627</v>
+        <v>504271501</v>
       </c>
       <c r="F65" s="11">
-        <v>504271501</v>
+        <v>585307042</v>
       </c>
       <c r="G65" s="11">
-        <v>585307042</v>
+        <v>676546144</v>
       </c>
       <c r="H65" s="11">
-        <v>676546144</v>
+        <v>720456057</v>
       </c>
       <c r="I65" s="11">
-        <v>720456057</v>
+        <v>939789004</v>
       </c>
       <c r="J65" s="11">
-        <v>939789004</v>
+        <v>673712274</v>
       </c>
       <c r="K65" s="11">
-        <v>673712274</v>
+        <v>832522936</v>
       </c>
       <c r="L65" s="11">
-        <v>832522936</v>
+        <v>974749588</v>
       </c>
       <c r="M65" s="11">
-        <v>974749588</v>
+        <v>1108763158</v>
       </c>
       <c r="N65" s="11">
-        <v>968577335</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>913815201</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>20</v>
       </c>
@@ -2664,37 +2664,37 @@
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
-        <v>113992158</v>
+        <v>141839792</v>
       </c>
       <c r="F66" s="13">
-        <v>141839792</v>
+        <v>150879840</v>
       </c>
       <c r="G66" s="13">
-        <v>150879840</v>
+        <v>175818808</v>
       </c>
       <c r="H66" s="13">
-        <v>175818808</v>
+        <v>182601241</v>
       </c>
       <c r="I66" s="13">
-        <v>182601241</v>
+        <v>225093439</v>
       </c>
       <c r="J66" s="13">
-        <v>225093439</v>
+        <v>179244932</v>
       </c>
       <c r="K66" s="13">
-        <v>179244932</v>
+        <v>220633521</v>
       </c>
       <c r="L66" s="13">
-        <v>220633521</v>
+        <v>242574949</v>
       </c>
       <c r="M66" s="13">
-        <v>242574949</v>
+        <v>265811991</v>
       </c>
       <c r="N66" s="13">
-        <v>248201862</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>251961059</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>21</v>
       </c>
@@ -2703,37 +2703,37 @@
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
-        <v>1257142857</v>
+        <v>1462500000</v>
       </c>
       <c r="F67" s="11">
-        <v>1462500000</v>
+        <v>1424242424</v>
       </c>
       <c r="G67" s="11">
-        <v>1424242424</v>
+        <v>1781250000</v>
       </c>
       <c r="H67" s="11">
-        <v>1781250000</v>
+        <v>666037736</v>
       </c>
       <c r="I67" s="11">
-        <v>666037736</v>
+        <v>2962000000</v>
       </c>
       <c r="J67" s="11">
-        <v>2962000000</v>
+        <v>1755555556</v>
       </c>
       <c r="K67" s="11">
-        <v>1755555556</v>
+        <v>1975000000</v>
       </c>
       <c r="L67" s="11">
-        <v>1975000000</v>
+        <v>1921951220</v>
       </c>
       <c r="M67" s="11">
-        <v>1921951220</v>
+        <v>1817391304</v>
       </c>
       <c r="N67" s="11">
-        <v>1581818182</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1552631579</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>22</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>42</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -2803,32 +2803,32 @@
       <c r="F70" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="11" t="s">
-        <v>23</v>
+      <c r="G70" s="11">
+        <v>341054054</v>
       </c>
       <c r="H70" s="11">
-        <v>341054054</v>
+        <v>298263889</v>
       </c>
       <c r="I70" s="11">
-        <v>298263889</v>
+        <v>288744395</v>
       </c>
       <c r="J70" s="11">
-        <v>288744395</v>
+        <v>316604766</v>
       </c>
       <c r="K70" s="11">
-        <v>316604766</v>
-      </c>
-      <c r="L70" s="11">
         <v>362197861</v>
       </c>
-      <c r="M70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N70" s="11">
+      <c r="L70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" s="11">
         <v>463487805</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N70" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>18</v>
       </c>
@@ -2848,12 +2848,12 @@
       <c r="H71" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I71" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71" s="13">
+      <c r="I71" s="13">
         <v>237400000</v>
       </c>
+      <c r="J71" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="K71" s="13" t="s">
         <v>23</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>19</v>
       </c>
@@ -2875,38 +2875,38 @@
         <v>41</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
-        <v>23</v>
+      <c r="E72" s="11">
+        <v>577126100</v>
       </c>
       <c r="F72" s="11">
-        <v>577126100</v>
+        <v>458060000</v>
       </c>
       <c r="G72" s="11">
-        <v>458060000</v>
-      </c>
-      <c r="H72" s="11">
         <v>547714286</v>
       </c>
-      <c r="I72" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J72" s="11">
+      <c r="H72" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" s="11">
         <v>604972222</v>
       </c>
+      <c r="J72" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="K72" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="11" t="s">
-        <v>23</v>
+      <c r="L72" s="11">
+        <v>734145833</v>
       </c>
       <c r="M72" s="11">
-        <v>734145833</v>
+        <v>742416667</v>
       </c>
       <c r="N72" s="11">
-        <v>742416667</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3037142857</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>20</v>
       </c>
@@ -2915,37 +2915,37 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13">
-        <v>143191661</v>
+        <v>158268868</v>
       </c>
       <c r="F73" s="13">
-        <v>158268868</v>
+        <v>163070064</v>
       </c>
       <c r="G73" s="13">
-        <v>163070064</v>
+        <v>145388021</v>
       </c>
       <c r="H73" s="13">
-        <v>145388021</v>
+        <v>177208251</v>
       </c>
       <c r="I73" s="13">
-        <v>177208251</v>
+        <v>172000000</v>
       </c>
       <c r="J73" s="13">
-        <v>172000000</v>
+        <v>138004862</v>
       </c>
       <c r="K73" s="13">
-        <v>138004862</v>
+        <v>169956229</v>
       </c>
       <c r="L73" s="13">
-        <v>169956229</v>
+        <v>243525786</v>
       </c>
       <c r="M73" s="13">
-        <v>243525786</v>
+        <v>194494822</v>
       </c>
       <c r="N73" s="13">
-        <v>194494822</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>192375000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>43</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>28</v>
       </c>
@@ -2994,14 +2994,14 @@
       <c r="L75" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M75" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N75" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M75" s="11">
+        <v>338531646</v>
+      </c>
+      <c r="N75" s="11">
+        <v>1078555556</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>29</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3055,7 +3055,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3070,7 +3070,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3085,7 +3085,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
         <v>45</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3137,7 +3137,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>46</v>
       </c>
@@ -3154,7 +3154,7 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>16</v>
       </c>
@@ -3163,37 +3163,37 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>-400071</v>
+        <v>-497905</v>
       </c>
       <c r="F83" s="11">
-        <v>-497905</v>
+        <v>-491923</v>
       </c>
       <c r="G83" s="11">
-        <v>-491923</v>
+        <v>-612464</v>
       </c>
       <c r="H83" s="11">
-        <v>-612464</v>
+        <v>-681039</v>
       </c>
       <c r="I83" s="11">
-        <v>-681039</v>
+        <v>-463494</v>
       </c>
       <c r="J83" s="11">
-        <v>-463494</v>
+        <v>-358097</v>
       </c>
       <c r="K83" s="11">
-        <v>-358097</v>
+        <v>-225188</v>
       </c>
       <c r="L83" s="11">
-        <v>-225188</v>
+        <v>-742648</v>
       </c>
       <c r="M83" s="11">
-        <v>-742648</v>
+        <v>-1141832</v>
       </c>
       <c r="N83" s="11">
-        <v>1325933</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1435205</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>18</v>
       </c>
@@ -3202,37 +3202,37 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>-180257</v>
+        <v>-209597</v>
       </c>
       <c r="F84" s="13">
-        <v>-209597</v>
+        <v>-287481</v>
       </c>
       <c r="G84" s="13">
-        <v>-287481</v>
+        <v>-245598</v>
       </c>
       <c r="H84" s="13">
-        <v>-245598</v>
+        <v>-277607</v>
       </c>
       <c r="I84" s="13">
-        <v>-277607</v>
+        <v>-249645</v>
       </c>
       <c r="J84" s="13">
-        <v>-249645</v>
+        <v>-244699</v>
       </c>
       <c r="K84" s="13">
-        <v>-244699</v>
+        <v>-122465</v>
       </c>
       <c r="L84" s="13">
-        <v>-122465</v>
+        <v>-197560</v>
       </c>
       <c r="M84" s="13">
-        <v>-197560</v>
+        <v>-260860</v>
       </c>
       <c r="N84" s="13">
-        <v>564724</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-308327</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>19</v>
       </c>
@@ -3241,37 +3241,37 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>-206528</v>
+        <v>-192207</v>
       </c>
       <c r="F85" s="11">
-        <v>-192207</v>
+        <v>-225578</v>
       </c>
       <c r="G85" s="11">
-        <v>-225578</v>
+        <v>-281689</v>
       </c>
       <c r="H85" s="11">
-        <v>-281689</v>
+        <v>-333713</v>
       </c>
       <c r="I85" s="11">
-        <v>-333713</v>
+        <v>-288674</v>
       </c>
       <c r="J85" s="11">
-        <v>-288674</v>
+        <v>-246712</v>
       </c>
       <c r="K85" s="11">
-        <v>-246712</v>
+        <v>-128949</v>
       </c>
       <c r="L85" s="11">
-        <v>-128949</v>
+        <v>-367389</v>
       </c>
       <c r="M85" s="11">
-        <v>-367389</v>
+        <v>-455328</v>
       </c>
       <c r="N85" s="11">
-        <v>743050</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-474255</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>20</v>
       </c>
@@ -3280,37 +3280,37 @@
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>-389725</v>
+        <v>-504907</v>
       </c>
       <c r="F86" s="13">
-        <v>-504907</v>
+        <v>-658195</v>
       </c>
       <c r="G86" s="13">
-        <v>-658195</v>
+        <v>-731266</v>
       </c>
       <c r="H86" s="13">
-        <v>-731266</v>
+        <v>-915489</v>
       </c>
       <c r="I86" s="13">
-        <v>-915489</v>
+        <v>-868910</v>
       </c>
       <c r="J86" s="13">
-        <v>-868910</v>
+        <v>-615425</v>
       </c>
       <c r="K86" s="13">
-        <v>-615425</v>
+        <v>-276758</v>
       </c>
       <c r="L86" s="13">
-        <v>-276758</v>
+        <v>-772459</v>
       </c>
       <c r="M86" s="13">
-        <v>-772459</v>
+        <v>-1141898</v>
       </c>
       <c r="N86" s="13">
-        <v>1664642</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1440543</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>21</v>
       </c>
@@ -3319,37 +3319,37 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>-68</v>
+        <v>-56</v>
       </c>
       <c r="F87" s="11">
+        <v>-105</v>
+      </c>
+      <c r="G87" s="11">
+        <v>-231</v>
+      </c>
+      <c r="H87" s="11">
         <v>-56</v>
       </c>
-      <c r="G87" s="11">
-        <v>-105</v>
-      </c>
-      <c r="H87" s="11">
-        <v>-231</v>
-      </c>
       <c r="I87" s="11">
-        <v>-56</v>
+        <v>-706</v>
       </c>
       <c r="J87" s="11">
-        <v>-706</v>
+        <v>-52</v>
       </c>
       <c r="K87" s="11">
-        <v>-52</v>
+        <v>-31</v>
       </c>
       <c r="L87" s="11">
-        <v>-31</v>
+        <v>-327</v>
       </c>
       <c r="M87" s="11">
-        <v>-327</v>
+        <v>-133</v>
       </c>
       <c r="N87" s="11">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>22</v>
       </c>
@@ -3366,14 +3366,14 @@
       <c r="G88" s="13">
         <v>0</v>
       </c>
-      <c r="H88" s="13">
-        <v>0</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J88" s="13">
-        <v>0</v>
+      <c r="H88" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" s="13">
+        <v>0</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="K88" s="13" t="s">
         <v>23</v>
@@ -3388,44 +3388,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15">
-        <v>-1176649</v>
+        <v>-1404672</v>
       </c>
       <c r="F89" s="15">
-        <v>-1404672</v>
+        <v>-1663282</v>
       </c>
       <c r="G89" s="15">
-        <v>-1663282</v>
+        <v>-1871248</v>
       </c>
       <c r="H89" s="15">
-        <v>-1871248</v>
+        <v>-2207904</v>
       </c>
       <c r="I89" s="15">
-        <v>-2207904</v>
+        <v>-1871429</v>
       </c>
       <c r="J89" s="15">
-        <v>-1871429</v>
+        <v>-1464985</v>
       </c>
       <c r="K89" s="15">
-        <v>-1464985</v>
+        <v>-753391</v>
       </c>
       <c r="L89" s="15">
-        <v>-753391</v>
+        <v>-2080383</v>
       </c>
       <c r="M89" s="15">
-        <v>-2080383</v>
+        <v>-3000051</v>
       </c>
       <c r="N89" s="15">
-        <v>4298759</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3658418</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>48</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>16</v>
       </c>
@@ -3451,37 +3451,37 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>-171</v>
+        <v>0</v>
       </c>
       <c r="F91" s="11">
         <v>0</v>
       </c>
       <c r="G91" s="11">
-        <v>0</v>
+        <v>-9969</v>
       </c>
       <c r="H91" s="11">
-        <v>-9969</v>
+        <v>-20089</v>
       </c>
       <c r="I91" s="11">
-        <v>-20089</v>
+        <v>-136117</v>
       </c>
       <c r="J91" s="11">
-        <v>-136117</v>
+        <v>-488361</v>
       </c>
       <c r="K91" s="11">
-        <v>-488361</v>
+        <v>-76966</v>
       </c>
       <c r="L91" s="11">
-        <v>-76966</v>
+        <v>-1</v>
       </c>
       <c r="M91" s="11">
-        <v>-1</v>
+        <v>-34449</v>
       </c>
       <c r="N91" s="11">
-        <v>565328</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>18</v>
       </c>
@@ -3498,29 +3498,29 @@
       <c r="G92" s="13">
         <v>0</v>
       </c>
-      <c r="H92" s="13">
-        <v>0</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>23</v>
+      <c r="H92" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" s="13">
+        <v>-1925</v>
       </c>
       <c r="J92" s="13">
-        <v>-1925</v>
-      </c>
-      <c r="K92" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="L92" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M92" s="13" t="s">
-        <v>23</v>
+      <c r="M92" s="13">
+        <v>0</v>
       </c>
       <c r="N92" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>19</v>
       </c>
@@ -3529,37 +3529,37 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>-554</v>
+        <v>-1001</v>
       </c>
       <c r="F93" s="11">
-        <v>-1001</v>
+        <v>-15918</v>
       </c>
       <c r="G93" s="11">
-        <v>-15918</v>
+        <v>-4277</v>
       </c>
       <c r="H93" s="11">
-        <v>-4277</v>
+        <v>0</v>
       </c>
       <c r="I93" s="11">
-        <v>0</v>
+        <v>-27380</v>
       </c>
       <c r="J93" s="11">
-        <v>-27380</v>
+        <v>0</v>
       </c>
       <c r="K93" s="11">
         <v>0</v>
       </c>
       <c r="L93" s="11">
-        <v>0</v>
+        <v>-30383</v>
       </c>
       <c r="M93" s="11">
-        <v>-30383</v>
+        <v>-6677</v>
       </c>
       <c r="N93" s="11">
-        <v>30383</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-37055</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>20</v>
       </c>
@@ -3568,74 +3568,74 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>-69550</v>
+        <v>-60901</v>
       </c>
       <c r="F94" s="13">
-        <v>-60901</v>
+        <v>-16570</v>
       </c>
       <c r="G94" s="13">
-        <v>-16570</v>
+        <v>-38723</v>
       </c>
       <c r="H94" s="13">
-        <v>-38723</v>
+        <v>-126109</v>
       </c>
       <c r="I94" s="13">
-        <v>-126109</v>
+        <v>-12536</v>
       </c>
       <c r="J94" s="13">
-        <v>-12536</v>
+        <v>-87487</v>
       </c>
       <c r="K94" s="13">
-        <v>-87487</v>
+        <v>-41272</v>
       </c>
       <c r="L94" s="13">
-        <v>-41272</v>
+        <v>-142618</v>
       </c>
       <c r="M94" s="13">
-        <v>-142618</v>
+        <v>-159129</v>
       </c>
       <c r="N94" s="13">
-        <v>271377</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-36941</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>-70275</v>
+        <v>-61902</v>
       </c>
       <c r="F95" s="15">
-        <v>-61902</v>
+        <v>-32488</v>
       </c>
       <c r="G95" s="15">
-        <v>-32488</v>
+        <v>-52969</v>
       </c>
       <c r="H95" s="15">
-        <v>-52969</v>
+        <v>-146198</v>
       </c>
       <c r="I95" s="15">
-        <v>-146198</v>
+        <v>-177958</v>
       </c>
       <c r="J95" s="15">
-        <v>-177958</v>
+        <v>-575848</v>
       </c>
       <c r="K95" s="15">
-        <v>-575848</v>
+        <v>-118238</v>
       </c>
       <c r="L95" s="15">
-        <v>-118238</v>
+        <v>-173002</v>
       </c>
       <c r="M95" s="15">
-        <v>-173002</v>
+        <v>-200255</v>
       </c>
       <c r="N95" s="15">
-        <v>867088</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-73996</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>50</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>28</v>
       </c>
@@ -3672,11 +3672,11 @@
       <c r="H97" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I97" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J97" s="11">
-        <v>0</v>
+      <c r="I97" s="11">
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="K97" s="11" t="s">
         <v>23</v>
@@ -3684,14 +3684,14 @@
       <c r="L97" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M97" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N97" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M97" s="11">
+        <v>0</v>
+      </c>
+      <c r="N97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>29</v>
       </c>
@@ -3711,11 +3711,11 @@
       <c r="H98" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I98" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J98" s="13">
-        <v>0</v>
+      <c r="I98" s="13">
+        <v>0</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="K98" s="13" t="s">
         <v>23</v>
@@ -3723,14 +3723,14 @@
       <c r="L98" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M98" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N98" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M98" s="13">
+        <v>0</v>
+      </c>
+      <c r="N98" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="14" t="s">
         <v>51</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="16" t="s">
         <v>28</v>
       </c>
@@ -3784,8 +3784,8 @@
       <c r="G100" s="17">
         <v>0</v>
       </c>
-      <c r="H100" s="17">
-        <v>0</v>
+      <c r="H100" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="I100" s="17" t="s">
         <v>23</v>
@@ -3806,7 +3806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>32</v>
       </c>
@@ -3845,44 +3845,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17">
-        <v>-1246924</v>
+        <v>-1466574</v>
       </c>
       <c r="F102" s="17">
-        <v>-1466574</v>
+        <v>-1695770</v>
       </c>
       <c r="G102" s="17">
-        <v>-1695770</v>
+        <v>-1924217</v>
       </c>
       <c r="H102" s="17">
-        <v>-1924217</v>
+        <v>-2354102</v>
       </c>
       <c r="I102" s="17">
-        <v>-2354102</v>
+        <v>-2049387</v>
       </c>
       <c r="J102" s="17">
-        <v>-2049387</v>
+        <v>-2040833</v>
       </c>
       <c r="K102" s="17">
-        <v>-2040833</v>
+        <v>-871629</v>
       </c>
       <c r="L102" s="17">
-        <v>-871629</v>
+        <v>-2253385</v>
       </c>
       <c r="M102" s="17">
-        <v>-2253385</v>
+        <v>-3200306</v>
       </c>
       <c r="N102" s="17">
-        <v>5165847</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3732414</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3897,7 +3897,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3912,7 +3912,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3927,7 +3927,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>52</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3979,7 +3979,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>53</v>
       </c>
@@ -3996,7 +3996,7 @@
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>16</v>
       </c>
@@ -4005,37 +4005,37 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>173311</v>
+        <v>270055</v>
       </c>
       <c r="F109" s="11">
-        <v>270055</v>
+        <v>145627</v>
       </c>
       <c r="G109" s="11">
-        <v>145627</v>
+        <v>225574</v>
       </c>
       <c r="H109" s="11">
-        <v>225574</v>
+        <v>77476</v>
       </c>
       <c r="I109" s="11">
-        <v>77476</v>
+        <v>359378</v>
       </c>
       <c r="J109" s="11">
-        <v>359378</v>
+        <v>11211</v>
       </c>
       <c r="K109" s="11">
-        <v>11211</v>
+        <v>59496</v>
       </c>
       <c r="L109" s="11">
-        <v>59496</v>
+        <v>90341</v>
       </c>
       <c r="M109" s="11">
-        <v>90341</v>
+        <v>561812</v>
       </c>
       <c r="N109" s="11">
-        <v>2736743</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>172824</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>18</v>
       </c>
@@ -4044,37 +4044,37 @@
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13">
-        <v>78017</v>
+        <v>91255</v>
       </c>
       <c r="F110" s="13">
-        <v>91255</v>
+        <v>59771</v>
       </c>
       <c r="G110" s="13">
-        <v>59771</v>
+        <v>88637</v>
       </c>
       <c r="H110" s="13">
-        <v>88637</v>
+        <v>6140</v>
       </c>
       <c r="I110" s="13">
-        <v>6140</v>
+        <v>153336</v>
       </c>
       <c r="J110" s="13">
-        <v>153336</v>
+        <v>33452</v>
       </c>
       <c r="K110" s="13">
-        <v>33452</v>
+        <v>28933</v>
       </c>
       <c r="L110" s="13">
-        <v>28933</v>
+        <v>67586</v>
       </c>
       <c r="M110" s="13">
-        <v>67586</v>
+        <v>174154</v>
       </c>
       <c r="N110" s="13">
-        <v>915420</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>117692</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>19</v>
       </c>
@@ -4083,37 +4083,37 @@
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
-        <v>140138</v>
+        <v>186395</v>
       </c>
       <c r="F111" s="11">
-        <v>186395</v>
+        <v>189990</v>
       </c>
       <c r="G111" s="11">
-        <v>189990</v>
+        <v>253459</v>
       </c>
       <c r="H111" s="11">
-        <v>253459</v>
+        <v>204861</v>
       </c>
       <c r="I111" s="11">
-        <v>204861</v>
+        <v>343804</v>
       </c>
       <c r="J111" s="11">
-        <v>343804</v>
+        <v>88123</v>
       </c>
       <c r="K111" s="11">
-        <v>88123</v>
+        <v>52541</v>
       </c>
       <c r="L111" s="11">
-        <v>52541</v>
+        <v>224284</v>
       </c>
       <c r="M111" s="11">
-        <v>224284</v>
+        <v>345199</v>
       </c>
       <c r="N111" s="11">
-        <v>1375531</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>138915</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>20</v>
       </c>
@@ -4122,37 +4122,37 @@
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13">
-        <v>308021</v>
+        <v>503364</v>
       </c>
       <c r="F112" s="13">
-        <v>503364</v>
+        <v>362658</v>
       </c>
       <c r="G112" s="13">
-        <v>362658</v>
+        <v>442851</v>
       </c>
       <c r="H112" s="13">
-        <v>442851</v>
+        <v>376857</v>
       </c>
       <c r="I112" s="13">
-        <v>376857</v>
+        <v>716198</v>
       </c>
       <c r="J112" s="13">
-        <v>716198</v>
+        <v>251045</v>
       </c>
       <c r="K112" s="13">
-        <v>251045</v>
+        <v>153698</v>
       </c>
       <c r="L112" s="13">
-        <v>153698</v>
+        <v>527015</v>
       </c>
       <c r="M112" s="13">
-        <v>527015</v>
+        <v>1110327</v>
       </c>
       <c r="N112" s="13">
-        <v>3583987</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>824083</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>21</v>
       </c>
@@ -4161,37 +4161,37 @@
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F113" s="11">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G113" s="11">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="H113" s="11">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="I113" s="11">
-        <v>290</v>
+        <v>2256</v>
       </c>
       <c r="J113" s="11">
-        <v>2256</v>
+        <v>106</v>
       </c>
       <c r="K113" s="11">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="L113" s="11">
-        <v>48</v>
+        <v>461</v>
       </c>
       <c r="M113" s="11">
-        <v>461</v>
+        <v>285</v>
       </c>
       <c r="N113" s="11">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>22</v>
       </c>
@@ -4208,14 +4208,14 @@
       <c r="G114" s="13">
         <v>0</v>
       </c>
-      <c r="H114" s="13">
-        <v>0</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J114" s="13">
-        <v>0</v>
+      <c r="H114" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I114" s="13">
+        <v>0</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="K114" s="13" t="s">
         <v>23</v>
@@ -4230,44 +4230,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15">
-        <v>699507</v>
+        <v>1051130</v>
       </c>
       <c r="F115" s="15">
-        <v>1051130</v>
+        <v>758129</v>
       </c>
       <c r="G115" s="15">
-        <v>758129</v>
+        <v>1010860</v>
       </c>
       <c r="H115" s="15">
-        <v>1010860</v>
+        <v>665624</v>
       </c>
       <c r="I115" s="15">
-        <v>665624</v>
+        <v>1574972</v>
       </c>
       <c r="J115" s="15">
-        <v>1574972</v>
+        <v>383937</v>
       </c>
       <c r="K115" s="15">
-        <v>383937</v>
+        <v>294716</v>
       </c>
       <c r="L115" s="15">
-        <v>294716</v>
+        <v>909687</v>
       </c>
       <c r="M115" s="15">
-        <v>909687</v>
+        <v>2191777</v>
       </c>
       <c r="N115" s="15">
-        <v>8612439</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1253721</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>55</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>16</v>
       </c>
@@ -4293,37 +4293,37 @@
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
-        <v>-171</v>
+        <v>0</v>
       </c>
       <c r="F117" s="11">
         <v>0</v>
       </c>
       <c r="G117" s="11">
-        <v>0</v>
+        <v>2650</v>
       </c>
       <c r="H117" s="11">
-        <v>2650</v>
+        <v>1386</v>
       </c>
       <c r="I117" s="11">
-        <v>1386</v>
+        <v>-7337</v>
       </c>
       <c r="J117" s="11">
-        <v>-7337</v>
+        <v>-103053</v>
       </c>
       <c r="K117" s="11">
-        <v>-103053</v>
+        <v>-9235</v>
       </c>
       <c r="L117" s="11">
-        <v>-9235</v>
+        <v>-1</v>
       </c>
       <c r="M117" s="11">
-        <v>-1</v>
+        <v>3557</v>
       </c>
       <c r="N117" s="11">
-        <v>603334</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>18</v>
       </c>
@@ -4340,29 +4340,29 @@
       <c r="G118" s="13">
         <v>0</v>
       </c>
-      <c r="H118" s="13">
-        <v>0</v>
-      </c>
-      <c r="I118" s="13" t="s">
-        <v>23</v>
+      <c r="H118" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I118" s="13">
+        <v>449</v>
       </c>
       <c r="J118" s="13">
-        <v>449</v>
-      </c>
-      <c r="K118" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K118" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="L118" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M118" s="13" t="s">
-        <v>23</v>
+      <c r="M118" s="13">
+        <v>0</v>
       </c>
       <c r="N118" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>19</v>
       </c>
@@ -4371,37 +4371,37 @@
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
-        <v>-554</v>
+        <v>967</v>
       </c>
       <c r="F119" s="11">
-        <v>967</v>
+        <v>6985</v>
       </c>
       <c r="G119" s="11">
-        <v>6985</v>
+        <v>6090</v>
       </c>
       <c r="H119" s="11">
-        <v>6090</v>
+        <v>0</v>
       </c>
       <c r="I119" s="11">
-        <v>0</v>
+        <v>16178</v>
       </c>
       <c r="J119" s="11">
-        <v>16178</v>
+        <v>0</v>
       </c>
       <c r="K119" s="11">
         <v>0</v>
       </c>
       <c r="L119" s="11">
-        <v>0</v>
+        <v>4856</v>
       </c>
       <c r="M119" s="11">
-        <v>4856</v>
+        <v>2232</v>
       </c>
       <c r="N119" s="11">
-        <v>39292</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5465</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>20</v>
       </c>
@@ -4410,74 +4410,74 @@
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13">
-        <v>93783</v>
+        <v>59195</v>
       </c>
       <c r="F120" s="13">
-        <v>59195</v>
+        <v>9032</v>
       </c>
       <c r="G120" s="13">
-        <v>9032</v>
+        <v>14407</v>
       </c>
       <c r="H120" s="13">
-        <v>14407</v>
+        <v>54289</v>
       </c>
       <c r="I120" s="13">
-        <v>54289</v>
+        <v>2772</v>
       </c>
       <c r="J120" s="13">
-        <v>2772</v>
+        <v>-2338</v>
       </c>
       <c r="K120" s="13">
-        <v>-2338</v>
+        <v>9205</v>
       </c>
       <c r="L120" s="13">
-        <v>9205</v>
+        <v>50985</v>
       </c>
       <c r="M120" s="13">
-        <v>50985</v>
+        <v>9887</v>
       </c>
       <c r="N120" s="13">
-        <v>440393</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6161</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
-        <v>93058</v>
+        <v>60162</v>
       </c>
       <c r="F121" s="15">
-        <v>60162</v>
+        <v>16017</v>
       </c>
       <c r="G121" s="15">
-        <v>16017</v>
+        <v>23147</v>
       </c>
       <c r="H121" s="15">
-        <v>23147</v>
+        <v>55675</v>
       </c>
       <c r="I121" s="15">
-        <v>55675</v>
+        <v>12062</v>
       </c>
       <c r="J121" s="15">
-        <v>12062</v>
+        <v>-105391</v>
       </c>
       <c r="K121" s="15">
-        <v>-105391</v>
+        <v>-30</v>
       </c>
       <c r="L121" s="15">
-        <v>-30</v>
+        <v>55840</v>
       </c>
       <c r="M121" s="15">
-        <v>55840</v>
+        <v>15676</v>
       </c>
       <c r="N121" s="15">
-        <v>1083019</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-696</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>57</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>28</v>
       </c>
@@ -4514,26 +4514,26 @@
       <c r="H123" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I123" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J123" s="11">
+      <c r="I123" s="11">
         <v>-35905</v>
       </c>
+      <c r="J123" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="K123" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L123" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M123" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N123" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M123" s="11">
+        <v>-454648</v>
+      </c>
+      <c r="N123" s="11">
+        <v>-9707</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>29</v>
       </c>
@@ -4553,26 +4553,26 @@
       <c r="H124" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I124" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J124" s="13">
+      <c r="I124" s="13">
         <v>-897198</v>
       </c>
+      <c r="J124" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="K124" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L124" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M124" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N124" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M124" s="13">
+        <v>-423500</v>
+      </c>
+      <c r="N124" s="13">
+        <v>-212786</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="14" t="s">
         <v>58</v>
       </c>
@@ -4591,10 +4591,10 @@
         <v>0</v>
       </c>
       <c r="I125" s="15">
-        <v>0</v>
+        <v>-933103</v>
       </c>
       <c r="J125" s="15">
-        <v>-933103</v>
+        <v>0</v>
       </c>
       <c r="K125" s="15">
         <v>0</v>
@@ -4603,47 +4603,47 @@
         <v>0</v>
       </c>
       <c r="M125" s="15">
-        <v>0</v>
+        <v>-878148</v>
       </c>
       <c r="N125" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-222493</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
       <c r="E126" s="17">
-        <v>792565</v>
+        <v>1111292</v>
       </c>
       <c r="F126" s="17">
-        <v>1111292</v>
+        <v>774146</v>
       </c>
       <c r="G126" s="17">
-        <v>774146</v>
+        <v>1034007</v>
       </c>
       <c r="H126" s="17">
-        <v>1034007</v>
+        <v>721299</v>
       </c>
       <c r="I126" s="17">
-        <v>721299</v>
+        <v>653931</v>
       </c>
       <c r="J126" s="17">
-        <v>653931</v>
+        <v>278546</v>
       </c>
       <c r="K126" s="17">
-        <v>278546</v>
+        <v>294686</v>
       </c>
       <c r="L126" s="17">
-        <v>294686</v>
+        <v>965527</v>
       </c>
       <c r="M126" s="17">
-        <v>965527</v>
+        <v>1329305</v>
       </c>
       <c r="N126" s="17">
-        <v>9695458</v>
+        <v>1030532</v>
       </c>
     </row>
   </sheetData>
